--- a/src/excel/diagram.xlsx
+++ b/src/excel/diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kowalska.el\Desktop\tempographies\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646B873D-974D-4005-9D05-FAF366D6BA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD276C12-AA5D-4A4E-B4B3-E05EDA5957D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82D1767E-086D-4ED7-A239-6D7C70345176}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Biochar </t>
-  </si>
-  <si>
     <t>symbol</t>
   </si>
   <si>
@@ -136,12 +133,244 @@
     <t>nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrogen is essential for plant growth, as it is required to make both amino acids (for proteins) and nucleic acids (for DNA), and is used in the correct development and functioning of chlorophyll, thus being vital for photosynthesis. All this means that if nitrogen is lacking, plants will grow more slowly, have lower product yields, and be more susceptible to attack, disease and death. </t>
-  </si>
-  <si>
     <t>Cold plasma</t>
   </si>
   <si>
+    <t>extreme surface', 'granulometry', 'porosity', 'sustainability'</t>
+  </si>
+  <si>
+    <t>laboratory', 'extreme surface', 'soil'</t>
+  </si>
+  <si>
+    <t>laboratory'</t>
+  </si>
+  <si>
+    <t>plasma reactor', 'enhancing the biochar', 'nutrients', 'cold plasma'</t>
+  </si>
+  <si>
+    <t>enhancing the biochar', 'plasma treatment', 'nitrogen'</t>
+  </si>
+  <si>
+    <t>networkString</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the laboratory in ePICNutrients project? In some cases, the answer is obvious - a laboratory understood as research infrastructure can be indicated at the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>University Haut-Alsace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Aristotle University of Thessaloniki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Adam Mickiewicz University</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">. This, however, does not exhaust the concept of a laboratory. Thanks to one of the key concepts for the project - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>mobility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> - our research space remains in constant motion - spatially, culturally and socially.</t>
+    </r>
+  </si>
+  <si>
+    <t>Plasma reactor</t>
+  </si>
+  <si>
+    <t>Enhancing the biochar</t>
+  </si>
+  <si>
+    <t>Small pot experiment</t>
+  </si>
+  <si>
+    <t>Ryegrass</t>
+  </si>
+  <si>
+    <t>Soil bacteria</t>
+  </si>
+  <si>
+    <t>Production of biochar</t>
+  </si>
+  <si>
+    <t>Olive trees</t>
+  </si>
+  <si>
+    <t>Crete</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Soil is a material composed of five components: minerals, living organisms, soil organic matter, gas and water. The development of plants growing in it depends on its physical properties (pulpness, aeration), chemical properties (presence of certain chemical elements) and biological properties (presence of bacteria and other microorganisms). Mixing improved </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>biochar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> with the soil improves the physical properties of the soil (as possibly evidenced by the results of the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>small pot experiment on the ryegrass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>) and provides the necessary nutrients.</t>
+    </r>
+  </si>
+  <si>
+    <t>Biochar</t>
+  </si>
+  <si>
+    <t>olive tree', 'laboratory', 'cold plasma', 'what biochar is?'</t>
+  </si>
+  <si>
+    <t>FTIR', 'plasma reactor'</t>
+  </si>
+  <si>
+    <t>plasma'</t>
+  </si>
+  <si>
+    <t>growing plants'</t>
+  </si>
+  <si>
+    <t>rye grass', 'soil bacteria'</t>
+  </si>
+  <si>
+    <t>'commercial waste'</t>
+  </si>
+  <si>
+    <t>production of biochar', 'Crete'</t>
+  </si>
+  <si>
+    <t>Commercial waste</t>
+  </si>
+  <si>
+    <t>Some text with a word plasma.</t>
+  </si>
+  <si>
+    <t>Some text with a word growing plants.</t>
+  </si>
+  <si>
+    <t>Growing plants</t>
+  </si>
+  <si>
+    <t>small pot experiment'</t>
+  </si>
+  <si>
+    <t>biochar', 'small pot experiment'</t>
+  </si>
+  <si>
+    <t>Some text with a word rye grass and soil bacteria.</t>
+  </si>
+  <si>
+    <t>Some text with a word commercial waste.</t>
+  </si>
+  <si>
+    <t>Some text with a word production of biochar and Crete.</t>
+  </si>
+  <si>
     <r>
       <t>Cold plasma</t>
     </r>
@@ -164,7 +393,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>enhance the biochar.</t>
+      <t>enhancing the biochar.</t>
     </r>
     <r>
       <rPr>
@@ -216,45 +445,18 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve"> and hydrogen cold plasma.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'olive tree', 'laboratory', 'cold plasma', 'what biochar is?'</t>
-  </si>
-  <si>
-    <t>extreme surface', 'granulometry', 'porosity', 'sustainability'</t>
-  </si>
-  <si>
-    <t>laboratory', 'extreme surface', 'soil'</t>
-  </si>
-  <si>
-    <t>laboratory'</t>
-  </si>
-  <si>
-    <t>plasma reactor', 'enhancing the biochar', 'nutrients', 'cold plasma'</t>
-  </si>
-  <si>
-    <t>enhancing the biochar', 'plasma treatment', 'nitrogen'</t>
-  </si>
-  <si>
-    <t>networkString</t>
-  </si>
-  <si>
-    <t>linkName</t>
-  </si>
-  <si>
-    <t>biochar</t>
-  </si>
-  <si>
-    <t>granulometry</t>
-  </si>
-  <si>
-    <t>what-is-biochar</t>
-  </si>
-  <si>
-    <r>
-      <t>Biochar is the solid material obtained from the thermochemical conversion of biomass (for ex. &lt;a href="olive-tree"&gt;</t>
+      <t xml:space="preserve"> and hydrogen cold plasma in a plasma treatment.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen is essential for plant growth, as it is required to make both amino acids (for proteins) and nucleic acids (for DNA), and is used in the correct development and functioning of chlorophyll, thus being vital for photosynthesis. All this means that if nitrogen is lacking, plants will grow more slowly, have lower product yields, and be more susceptible to attack, disease and death. Cold plasma, enhancing the biochar, plasma reactor. </t>
+  </si>
+  <si>
+    <t>FTIR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Biochar is the solid material obtained from the thermochemical conversion of biomass (for ex. </t>
     </r>
     <r>
       <rPr>
@@ -275,7 +477,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">&lt;/a&gt; branches) in an oxygen-limited environment and is a form of charcoal, made of carbon and ashes, remaining after the </t>
+      <t xml:space="preserve"> branches) in an oxygen-limited environment and is a form of charcoal, made of carbon and ashes, remaining after the </t>
     </r>
     <r>
       <rPr>
@@ -295,28 +497,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve"> of biomass. It is a stable solid and can endure in soil for thousands of years. Biochar is treated in the UHA/CNRS &lt;a href="laboratory"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>laboratory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>&lt;/a&gt; using &lt;a href="cold-plasma"&gt;</t>
+      <t xml:space="preserve"> of biomass. It is a stable solid and can endure in soil for thousands of years. Biochar is treated in the UHA/CNRS laboratory using </t>
     </r>
     <r>
       <rPr>
@@ -337,7 +518,7 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">&lt;/a&gt; to enrich it with nitrogen molecules and transform it into soil amendment. The important question in research is: &lt;a href="what-is-biochar"&gt; </t>
+      <t xml:space="preserve"> to enrich it with nitrogen molecules and transform it into soil amendment. The important question in research is: </t>
     </r>
     <r>
       <rPr>
@@ -358,47 +539,44 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>?&lt;/a&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>cold-plasma</t>
-  </si>
-  <si>
-    <r>
-      <t>In the ePICNutrients project it is important to have some questions in mind: what is biochar from different perspectives? What is biochar as a material? How is it produced? and what attributes are important (as &lt;a href="porosity"&gt;porosity&lt;/a&gt;, &lt;a href="granulometry"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>granulometry&lt;/a&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>, &lt;a href="extreme-surface"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>extreme surface&lt;/a&gt;</t>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the ePICNutrients project it is important to have some questions in mind: what is biochar from different perspectives? What is biochar as a material? How is it produced? and what attributes are important (as porosity, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>granulometry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>extreme surface</t>
     </r>
     <r>
       <rPr>
@@ -491,7 +669,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -622,11 +800,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -675,9 +864,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,20 +1210,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3A1C73-C25A-4E88-8694-04470843AB13}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
     <col min="4" max="4" width="23.6328125" customWidth="1"/>
     <col min="5" max="5" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1034,406 +1232,416 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="140" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="98" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="182" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="112" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="84" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="168" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="126" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" ht="140.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="182" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="6" spans="1:5" ht="98" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:5" ht="84" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="B18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="16"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="16"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="16"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="16"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="16"/>
-      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="19"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="16"/>
-      <c r="E35" s="19"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="19"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="16"/>
-      <c r="E37" s="19"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="19"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="16"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="19"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="16"/>
-      <c r="E41" s="19"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="19"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="16"/>
-      <c r="E43" s="19"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="19"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="19"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="19"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="19"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="19"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="19"/>
+      <c r="E46" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
